--- a/documentation/load_profile.xlsx
+++ b/documentation/load_profile.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A29E9D-C277-4823-9769-03532286DF33}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD470927-8FE6-49AF-ACB6-594E04182FCE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Автоматизированный расчет" sheetId="1" r:id="rId1"/>
     <sheet name="Расчет профиля" sheetId="2" r:id="rId2"/>
+    <sheet name="Поиск максимума" sheetId="3" r:id="rId3"/>
+    <sheet name="Подтверждение максимума" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="101">
   <si>
     <t>ОПЕРАЦИИ</t>
   </si>
@@ -306,6 +308,24 @@
   </si>
   <si>
     <t>ОТЛАДОЧНЫЙ ТЕСТ</t>
+  </si>
+  <si>
+    <t>Поиск максимальной производительности 1 ступень</t>
+  </si>
+  <si>
+    <t>Поиск максимальной производительности 2 ступень</t>
+  </si>
+  <si>
+    <t>Поиск максимальной производительности 3 ступень</t>
+  </si>
+  <si>
+    <t>Поиск максимальной производительности 4 ступень</t>
+  </si>
+  <si>
+    <t>Поиск максимальной производительности 5 ступень</t>
+  </si>
+  <si>
+    <t>Подтверждение максимальной производительности 400% от профиля</t>
   </si>
 </sst>
 </file>
@@ -315,7 +335,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +484,21 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -650,7 +685,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -782,7 +817,6 @@
     <xf numFmtId="9" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -849,6 +883,71 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="20" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,6 +961,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,13 +1253,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
+    <col min="1" max="1" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -1202,28 +1305,28 @@
       <c r="I1" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="78" t="s">
+      <c r="L1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="78" t="s">
+      <c r="N1" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="78" t="s">
+      <c r="O1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="78" t="s">
+      <c r="P1" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" s="78" t="s">
+      <c r="Q1" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="77" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1429,7 +1532,7 @@
         <v>97.297297297297305</v>
       </c>
       <c r="G5" s="51">
-        <f t="shared" si="2"/>
+        <f>60/D5</f>
         <v>0.81081081081081086</v>
       </c>
       <c r="H5" s="51">
@@ -1559,14 +1662,14 @@
         <f t="shared" si="3"/>
         <v>32.432432432432435</v>
       </c>
-      <c r="K7" s="79"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="81"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="80"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
@@ -1601,7 +1704,7 @@
         <v>32.432432432432435</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="46"/>
       <c r="C9" s="26"/>
@@ -1611,6 +1714,21 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
+      <c r="K9" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="76" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="74" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
@@ -1644,6 +1762,24 @@
         <f>C10*G10*H10</f>
         <v>59.016393442622942</v>
       </c>
+      <c r="K10" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="40">
+        <f>F2+F10+F19+F24+F29</f>
+        <v>524.27028590248528</v>
+      </c>
+      <c r="M10" s="40">
+        <f>G2+G10+G19+G24+G29</f>
+        <v>4.3381925511882242</v>
+      </c>
+      <c r="N10" s="51">
+        <v>20</v>
+      </c>
+      <c r="O10" s="40">
+        <f>I2+I10+I19+I24+I29</f>
+        <v>174.75676196749509</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
@@ -1677,6 +1813,24 @@
         <f t="shared" ref="I11:I17" si="10">C11*G11*H11</f>
         <v>59.016393442622942</v>
       </c>
+      <c r="K11" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="40">
+        <f>F11+F20+F25+F30</f>
+        <v>426.97298860518799</v>
+      </c>
+      <c r="M11" s="40">
+        <f>G11+G20+G25+G30</f>
+        <v>3.5273817403774137</v>
+      </c>
+      <c r="N11" s="51">
+        <v>20</v>
+      </c>
+      <c r="O11" s="40">
+        <f>I11+I20+I25+I30</f>
+        <v>142.32432953506265</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
@@ -1710,6 +1864,24 @@
         <f t="shared" si="10"/>
         <v>59.016393442622942</v>
       </c>
+      <c r="K12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" s="40">
+        <f>F6+F12+F26</f>
+        <v>304.8549522014373</v>
+      </c>
+      <c r="M12" s="40">
+        <f>G6+G12+G26</f>
+        <v>2.3028919444590463</v>
+      </c>
+      <c r="N12" s="51">
+        <v>20</v>
+      </c>
+      <c r="O12" s="40">
+        <f>I6+I12+I26</f>
+        <v>101.6183174004791</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
@@ -1743,6 +1915,24 @@
         <f t="shared" si="10"/>
         <v>59.016393442622942</v>
       </c>
+      <c r="K13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="40">
+        <f>F7+F13</f>
+        <v>274.34647762516613</v>
+      </c>
+      <c r="M13" s="40">
+        <f>G7+G13</f>
+        <v>1.7944173681878599</v>
+      </c>
+      <c r="N13" s="51">
+        <v>20</v>
+      </c>
+      <c r="O13" s="40">
+        <f>I7+I13</f>
+        <v>91.448825875055377</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
@@ -1776,6 +1966,24 @@
         <f t="shared" si="10"/>
         <v>59.016393442622942</v>
       </c>
+      <c r="K14" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="40">
+        <f>F8+F14</f>
+        <v>274.34647762516613</v>
+      </c>
+      <c r="M14" s="40">
+        <f>G8+G14</f>
+        <v>1.7944173681878599</v>
+      </c>
+      <c r="N14" s="51">
+        <v>20</v>
+      </c>
+      <c r="O14" s="40">
+        <f>I8+I14</f>
+        <v>91.448825875055377</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
@@ -1809,6 +2017,24 @@
         <f t="shared" si="10"/>
         <v>59.016393442622942</v>
       </c>
+      <c r="K15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="40">
+        <f>F15</f>
+        <v>177.04918032786884</v>
+      </c>
+      <c r="M15" s="40">
+        <f>G15</f>
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="N15" s="51">
+        <v>20</v>
+      </c>
+      <c r="O15" s="40">
+        <f>I15</f>
+        <v>59.016393442622942</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
@@ -1842,6 +2068,24 @@
         <f t="shared" si="10"/>
         <v>59.016393442622942</v>
       </c>
+      <c r="K16" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="40">
+        <f>F16+F21+F27</f>
+        <v>281.02704265924206</v>
+      </c>
+      <c r="M16" s="40">
+        <f>G16+G21+G27</f>
+        <v>2.7165709295666027</v>
+      </c>
+      <c r="N16" s="51">
+        <v>20</v>
+      </c>
+      <c r="O16" s="40">
+        <f>I16+I21+I27</f>
+        <v>93.675680886414014</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
@@ -1875,8 +2119,26 @@
         <f t="shared" si="10"/>
         <v>59.016393442622942</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="40">
+        <f>F22</f>
+        <v>73.469387755102034</v>
+      </c>
+      <c r="M17" s="40">
+        <f>G22</f>
+        <v>1.2244897959183674</v>
+      </c>
+      <c r="N17" s="51">
+        <v>20</v>
+      </c>
+      <c r="O17" s="40">
+        <f>I22</f>
+        <v>24.489795918367349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -1886,20 +2148,23 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
-      <c r="K18" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="L18" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="75" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="77" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="75" t="s">
-        <v>89</v>
+      <c r="K18" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="40">
+        <f>F17+F31</f>
+        <v>322.99512627381478</v>
+      </c>
+      <c r="M18" s="40">
+        <f>G17+G31</f>
+        <v>1.7944173681878599</v>
+      </c>
+      <c r="N18" s="51">
+        <v>20</v>
+      </c>
+      <c r="O18" s="40">
+        <f>I17+I31</f>
+        <v>107.66504209127159</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1934,24 +2199,11 @@
         <f t="shared" ref="I19:I22" si="13">C19*G19*H19</f>
         <v>24.489795918367349</v>
       </c>
-      <c r="K19" s="74" t="s">
-        <v>36</v>
-      </c>
-      <c r="L19" s="40">
-        <f>F2+F10+F19+F24+F29</f>
-        <v>524.27028590248528</v>
-      </c>
-      <c r="M19" s="40">
-        <f>G2+G10+G19+G24+G29</f>
-        <v>4.3381925511882242</v>
-      </c>
-      <c r="N19" s="51">
-        <v>20</v>
-      </c>
-      <c r="O19" s="40">
-        <f>I2+I10+I19+I24+I29</f>
-        <v>174.75676196749509</v>
-      </c>
+      <c r="K19" s="41"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
@@ -1986,22 +2238,22 @@
         <v>24.489795918367349</v>
       </c>
       <c r="K20" s="25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L20" s="40">
-        <f>F11+F20+F25+F30</f>
-        <v>426.97298860518799</v>
+        <f t="shared" ref="L20:M22" si="14">F3</f>
+        <v>97.297297297297305</v>
       </c>
       <c r="M20" s="40">
-        <f>G11+G20+G25+G30</f>
-        <v>3.5273817403774137</v>
+        <f t="shared" si="14"/>
+        <v>0.81081081081081086</v>
       </c>
       <c r="N20" s="51">
         <v>20</v>
       </c>
       <c r="O20" s="40">
-        <f>I11+I20+I25+I30</f>
-        <v>142.32432953506265</v>
+        <f>I3</f>
+        <v>32.432432432432435</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2037,22 +2289,22 @@
         <v>24.489795918367349</v>
       </c>
       <c r="K21" s="25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L21" s="40">
-        <f>F6+F12+F26</f>
-        <v>304.8549522014373</v>
+        <f t="shared" si="14"/>
+        <v>97.297297297297305</v>
       </c>
       <c r="M21" s="40">
-        <f>G6+G12+G26</f>
-        <v>2.3028919444590463</v>
+        <f t="shared" si="14"/>
+        <v>0.81081081081081086</v>
       </c>
       <c r="N21" s="51">
         <v>20</v>
       </c>
       <c r="O21" s="40">
-        <f>I6+I12+I26</f>
-        <v>101.6183174004791</v>
+        <f>I4</f>
+        <v>32.432432432432435</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2088,22 +2340,22 @@
         <v>24.489795918367349</v>
       </c>
       <c r="K22" s="25" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L22" s="40">
-        <f>F7+F13</f>
-        <v>274.34647762516613</v>
+        <f t="shared" si="14"/>
+        <v>97.297297297297305</v>
       </c>
       <c r="M22" s="40">
-        <f>G7+G13</f>
-        <v>1.7944173681878599</v>
+        <f t="shared" si="14"/>
+        <v>0.81081081081081086</v>
       </c>
       <c r="N22" s="51">
         <v>20</v>
       </c>
       <c r="O22" s="40">
-        <f>I7+I13</f>
-        <v>91.448825875055377</v>
+        <f>I5</f>
+        <v>32.432432432432435</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -2116,23 +2368,21 @@
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
-      <c r="K23" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="40">
-        <f>F8+F14</f>
-        <v>274.34647762516613</v>
-      </c>
-      <c r="M23" s="40">
-        <f>G8+G14</f>
-        <v>1.7944173681878599</v>
-      </c>
-      <c r="N23" s="51">
-        <v>20</v>
-      </c>
-      <c r="O23" s="40">
-        <f>I8+I14</f>
-        <v>91.448825875055377</v>
+      <c r="K23" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="27">
+        <f>SUM(L10:L22)</f>
+        <v>2951.2238108673628</v>
+      </c>
+      <c r="M23" s="27">
+        <f>SUM(M10:M22)</f>
+        <v>22.908818055882715</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27">
+        <f>SUM(O10:O22)</f>
+        <v>983.74127028912073</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2153,37 +2403,19 @@
         <v>8.4745762711864406E-3</v>
       </c>
       <c r="F24" s="50">
-        <f t="shared" ref="F24:F27" si="14">E24*3600</f>
+        <f t="shared" ref="F24:F27" si="15">E24*3600</f>
         <v>30.508474576271187</v>
       </c>
       <c r="G24" s="51">
-        <f t="shared" ref="G24:G27" si="15">60/D24</f>
+        <f t="shared" ref="G24:G27" si="16">60/D24</f>
         <v>0.50847457627118642</v>
       </c>
       <c r="H24" s="51">
         <v>20</v>
       </c>
       <c r="I24" s="50">
-        <f t="shared" ref="I24:I27" si="16">C24*G24*H24</f>
+        <f t="shared" ref="I24:I27" si="17">C24*G24*H24</f>
         <v>10.169491525423728</v>
-      </c>
-      <c r="K24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="L24" s="40">
-        <f>F15</f>
-        <v>177.04918032786884</v>
-      </c>
-      <c r="M24" s="40">
-        <f>G15</f>
-        <v>0.98360655737704916</v>
-      </c>
-      <c r="N24" s="51">
-        <v>20</v>
-      </c>
-      <c r="O24" s="40">
-        <f>I15</f>
-        <v>59.016393442622942</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2204,37 +2436,19 @@
         <v>8.4745762711864406E-3</v>
       </c>
       <c r="F25" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30.508474576271187</v>
       </c>
       <c r="G25" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.50847457627118642</v>
       </c>
       <c r="H25" s="51">
         <v>20</v>
       </c>
       <c r="I25" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.169491525423728</v>
-      </c>
-      <c r="K25" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L25" s="40">
-        <f>F16+F21+F27</f>
-        <v>281.02704265924206</v>
-      </c>
-      <c r="M25" s="40">
-        <f>G16+G21+G27</f>
-        <v>2.7165709295666027</v>
-      </c>
-      <c r="N25" s="51">
-        <v>20</v>
-      </c>
-      <c r="O25" s="40">
-        <f>I16+I21+I27</f>
-        <v>93.675680886414014</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2255,37 +2469,19 @@
         <v>8.4745762711864406E-3</v>
       </c>
       <c r="F26" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30.508474576271187</v>
       </c>
       <c r="G26" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.50847457627118642</v>
       </c>
       <c r="H26" s="51">
         <v>20</v>
       </c>
       <c r="I26" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.169491525423728</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="40">
-        <f>F22</f>
-        <v>73.469387755102034</v>
-      </c>
-      <c r="M26" s="40">
-        <f>G22</f>
-        <v>1.2244897959183674</v>
-      </c>
-      <c r="N26" s="51">
-        <v>20</v>
-      </c>
-      <c r="O26" s="40">
-        <f>I22</f>
-        <v>24.489795918367349</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2306,37 +2502,19 @@
         <v>8.4745762711864406E-3</v>
       </c>
       <c r="F27" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30.508474576271187</v>
       </c>
       <c r="G27" s="51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.50847457627118642</v>
       </c>
       <c r="H27" s="51">
         <v>20</v>
       </c>
       <c r="I27" s="50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.169491525423728</v>
-      </c>
-      <c r="K27" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="40">
-        <f>F17+F31</f>
-        <v>322.99512627381478</v>
-      </c>
-      <c r="M27" s="40">
-        <f>G17+G31</f>
-        <v>1.7944173681878599</v>
-      </c>
-      <c r="N27" s="51">
-        <v>20</v>
-      </c>
-      <c r="O27" s="40">
-        <f>I17+I31</f>
-        <v>107.66504209127159</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2349,11 +2527,6 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
@@ -2387,24 +2560,6 @@
         <f>C29*G29*H29</f>
         <v>48.648648648648646</v>
       </c>
-      <c r="K29" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="40">
-        <f t="shared" ref="L29:M31" si="17">F3</f>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="M29" s="40">
-        <f t="shared" si="17"/>
-        <v>0.81081081081081086</v>
-      </c>
-      <c r="N29" s="51">
-        <v>20</v>
-      </c>
-      <c r="O29" s="40">
-        <f>I3</f>
-        <v>32.432432432432435</v>
-      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
@@ -2438,24 +2593,6 @@
         <f t="shared" ref="I30:I31" si="20">C30*G30*H30</f>
         <v>48.648648648648646</v>
       </c>
-      <c r="K30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" s="40">
-        <f t="shared" si="17"/>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="M30" s="40">
-        <f t="shared" si="17"/>
-        <v>0.81081081081081086</v>
-      </c>
-      <c r="N30" s="51">
-        <v>20</v>
-      </c>
-      <c r="O30" s="40">
-        <f>I4</f>
-        <v>32.432432432432435</v>
-      </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
@@ -2488,24 +2625,6 @@
       <c r="I31" s="50">
         <f t="shared" si="20"/>
         <v>48.648648648648646</v>
-      </c>
-      <c r="K31" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="L31" s="40">
-        <f t="shared" si="17"/>
-        <v>97.297297297297305</v>
-      </c>
-      <c r="M31" s="40">
-        <f t="shared" si="17"/>
-        <v>0.81081081081081086</v>
-      </c>
-      <c r="N31" s="51">
-        <v>20</v>
-      </c>
-      <c r="O31" s="40">
-        <f>I5</f>
-        <v>32.432432432432435</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2523,41 +2642,25 @@
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
-      <c r="K32" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="27">
-        <f>SUM(L19:L31)</f>
-        <v>2951.2238108673628</v>
-      </c>
-      <c r="M32" s="27">
-        <f>SUM(M19:M31)</f>
-        <v>22.908818055882715</v>
-      </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27">
-        <f>SUM(O19:O31)</f>
-        <v>983.74127028912073</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+    </row>
+    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90" t="s">
+      <c r="B35" s="114"/>
+      <c r="C35" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="92" t="s">
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="116" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="94"/>
-    </row>
-    <row r="36" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="118"/>
+    </row>
+    <row r="36" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
         <v>51</v>
       </c>
@@ -2585,14 +2688,8 @@
       <c r="I36" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="K36" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="L36" s="42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>9</v>
       </c>
@@ -2600,25 +2697,25 @@
         <v>520</v>
       </c>
       <c r="C37" s="57">
-        <f t="shared" ref="C37:C45" si="21">L19</f>
+        <f t="shared" ref="C37:C45" si="21">L10</f>
         <v>524.27028590248528</v>
       </c>
       <c r="D37" s="58">
         <f>1-B37/C37</f>
         <v>8.1451991793399792E-3</v>
       </c>
-      <c r="E37" s="67">
+      <c r="E37" s="66">
         <f>C37/B37*100</f>
         <v>100.82120882740102</v>
       </c>
-      <c r="F37" s="60" t="s">
+      <c r="F37" s="59" t="s">
         <v>36</v>
       </c>
       <c r="G37" s="44">
-        <f>O19</f>
+        <f t="shared" ref="G37:G45" si="22">O10</f>
         <v>174.75676196749509</v>
       </c>
-      <c r="H37" s="29">
+      <c r="H37" s="44">
         <f>G64</f>
         <v>178</v>
       </c>
@@ -2626,15 +2723,8 @@
         <f>1-G37/H37</f>
         <v>1.8220438384858983E-2</v>
       </c>
-      <c r="K37" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="29" t="str">
-        <f t="shared" ref="L37:L48" si="22">F37</f>
-        <v>open_start_page</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
         <v>10</v>
       </c>
@@ -2649,35 +2739,27 @@
         <f t="shared" ref="D38:D49" si="23">1-B38/C38</f>
         <v>1.164708011491189E-2</v>
       </c>
-      <c r="E38" s="67">
+      <c r="E38" s="66">
         <f t="shared" ref="E38:E48" si="24">C38/B38*100</f>
         <v>101.17843331876493</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F38" s="60" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="44">
-        <f t="shared" ref="G38:G45" si="25">O20</f>
+        <f t="shared" si="22"/>
         <v>142.32432953506265</v>
       </c>
-      <c r="H38" s="29">
+      <c r="H38" s="44">
         <f>G58</f>
         <v>143</v>
       </c>
       <c r="I38" s="43">
-        <f t="shared" ref="I38:I48" si="26">1-G38/H38</f>
+        <f t="shared" ref="I38:I48" si="25">1-G38/H38</f>
         <v>4.7249682862752218E-3</v>
       </c>
-      <c r="J38" s="71"/>
-      <c r="K38" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="L38" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>do_login</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
         <v>11</v>
       </c>
@@ -2692,35 +2774,27 @@
         <f t="shared" si="23"/>
         <v>-4.7579282381748911E-4</v>
       </c>
-      <c r="E39" s="67">
+      <c r="E39" s="66">
         <f t="shared" si="24"/>
         <v>99.952443344733538</v>
       </c>
-      <c r="F39" s="60" t="s">
+      <c r="F39" s="59" t="s">
         <v>42</v>
       </c>
       <c r="G39" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>101.6183174004791</v>
       </c>
-      <c r="H39" s="29">
+      <c r="H39" s="44">
         <f>G62</f>
         <v>102</v>
       </c>
       <c r="I39" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3.7419862698127027E-3</v>
       </c>
-      <c r="J39" s="71"/>
-      <c r="K39" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>open_flights</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
         <v>12</v>
       </c>
@@ -2735,35 +2809,27 @@
         <f t="shared" si="23"/>
         <v>-2.7897286821705558E-2</v>
       </c>
-      <c r="E40" s="67">
+      <c r="E40" s="66">
         <f t="shared" si="24"/>
         <v>97.285984973463172</v>
       </c>
-      <c r="F40" s="61" t="s">
+      <c r="F40" s="60" t="s">
         <v>43</v>
       </c>
       <c r="G40" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>91.448825875055377</v>
       </c>
-      <c r="H40" s="29">
+      <c r="H40" s="44">
         <f>G59</f>
         <v>92</v>
       </c>
       <c r="I40" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5.9910230972242129E-3</v>
       </c>
-      <c r="J40" s="71"/>
-      <c r="K40" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>find_flights</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
         <v>13</v>
       </c>
@@ -2778,35 +2844,27 @@
         <f t="shared" si="23"/>
         <v>1.5843023255813882E-2</v>
       </c>
-      <c r="E41" s="67">
+      <c r="E41" s="66">
         <f t="shared" si="24"/>
         <v>101.60980652783931</v>
       </c>
-      <c r="F41" s="62" t="s">
+      <c r="F41" s="61" t="s">
         <v>44</v>
       </c>
       <c r="G41" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>91.448825875055377</v>
       </c>
-      <c r="H41" s="29">
+      <c r="H41" s="44">
         <f>G55</f>
         <v>90</v>
       </c>
       <c r="I41" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-1.6098065278393081E-2</v>
       </c>
-      <c r="J41" s="71"/>
-      <c r="K41" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="L41" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>choose_flights</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="36" t="s">
         <v>14</v>
       </c>
@@ -2821,35 +2879,27 @@
         <f t="shared" si="23"/>
         <v>1.1574074074073959E-2</v>
       </c>
-      <c r="E42" s="67">
+      <c r="E42" s="66">
         <f t="shared" si="24"/>
         <v>101.17096018735363</v>
       </c>
-      <c r="F42" s="63" t="s">
+      <c r="F42" s="62" t="s">
         <v>45</v>
       </c>
       <c r="G42" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>59.016393442622942</v>
       </c>
-      <c r="H42" s="29">
+      <c r="H42" s="44">
         <f>G53</f>
         <v>59</v>
       </c>
       <c r="I42" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-2.7785495971088814E-4</v>
       </c>
-      <c r="J42" s="71"/>
-      <c r="K42" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>buy_flights</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="36" t="s">
         <v>15</v>
       </c>
@@ -2864,35 +2914,27 @@
         <f t="shared" si="23"/>
         <v>3.6546043737413214E-3</v>
       </c>
-      <c r="E43" s="67">
+      <c r="E43" s="66">
         <f t="shared" si="24"/>
         <v>100.3668009497293</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="62" t="s">
         <v>46</v>
       </c>
       <c r="G43" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>93.675680886414014</v>
       </c>
-      <c r="H43" s="29">
+      <c r="H43" s="44">
         <f>G63</f>
         <v>93</v>
       </c>
       <c r="I43" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-7.2653858754194722E-3</v>
       </c>
-      <c r="J43" s="71"/>
-      <c r="K43" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L43" s="29" t="str">
-        <f t="shared" si="22"/>
-        <v>open_itinerary</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="36" t="s">
         <v>16</v>
       </c>
@@ -2907,35 +2949,27 @@
         <f t="shared" si="23"/>
         <v>6.3888888888887774E-3</v>
       </c>
-      <c r="E44" s="67">
+      <c r="E44" s="66">
         <f t="shared" si="24"/>
         <v>100.6429969247973</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="63" t="s">
         <v>48</v>
       </c>
       <c r="G44" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>24.489795918367349</v>
       </c>
-      <c r="H44" s="29">
+      <c r="H44" s="44">
         <f>G54</f>
         <v>24</v>
       </c>
       <c r="I44" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>-2.0408163265306145E-2</v>
       </c>
-      <c r="J44" s="71"/>
-      <c r="K44" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="L44" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>cancel_itinerary</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="36" t="s">
         <v>17</v>
       </c>
@@ -2950,35 +2984,27 @@
         <f t="shared" si="23"/>
         <v>-9.3031550068587432E-3</v>
       </c>
-      <c r="E45" s="67">
+      <c r="E45" s="66">
         <f t="shared" si="24"/>
         <v>99.078259593194716</v>
       </c>
-      <c r="F45" s="64" t="s">
+      <c r="F45" s="63" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="44">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>107.66504209127159</v>
       </c>
-      <c r="H45" s="29">
+      <c r="H45" s="44">
         <f>G61</f>
         <v>108</v>
       </c>
       <c r="I45" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>3.1014621178556689E-3</v>
       </c>
-      <c r="J45" s="71"/>
-      <c r="K45" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>logout</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>18</v>
       </c>
@@ -2986,42 +3012,34 @@
         <v>97</v>
       </c>
       <c r="C46" s="57">
-        <f>L29</f>
+        <f>L20</f>
         <v>97.297297297297305</v>
       </c>
       <c r="D46" s="58">
         <f t="shared" si="23"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E46" s="67">
+      <c r="E46" s="66">
         <f t="shared" si="24"/>
         <v>100.30649205906938</v>
       </c>
-      <c r="F46" s="64" t="s">
+      <c r="F46" s="63" t="s">
         <v>37</v>
       </c>
       <c r="G46" s="44">
-        <f>O29</f>
+        <f>O20</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H46" s="29">
+      <c r="H46" s="44">
         <f>G57</f>
         <v>33</v>
       </c>
       <c r="I46" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1.7199017199017064E-2</v>
       </c>
-      <c r="J46" s="71"/>
-      <c r="K46" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="L46" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>customer_profile</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
         <v>29</v>
       </c>
@@ -3029,42 +3047,34 @@
         <v>97</v>
       </c>
       <c r="C47" s="57">
-        <f>L30</f>
+        <f>L21</f>
         <v>97.297297297297305</v>
       </c>
       <c r="D47" s="58">
         <f t="shared" si="23"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E47" s="67">
+      <c r="E47" s="66">
         <f t="shared" si="24"/>
         <v>100.30649205906938</v>
       </c>
-      <c r="F47" s="64" t="s">
+      <c r="F47" s="63" t="s">
         <v>38</v>
       </c>
       <c r="G47" s="44">
-        <f>O30</f>
+        <f>O21</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H47" s="29">
+      <c r="H47" s="44">
         <f>G56</f>
         <v>33</v>
       </c>
       <c r="I47" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1.7199017199017064E-2</v>
       </c>
-      <c r="J47" s="71"/>
-      <c r="K47" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="L47" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>confirmation</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="37.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>67</v>
       </c>
@@ -3072,39 +3082,31 @@
         <v>97</v>
       </c>
       <c r="C48" s="57">
-        <f>L31</f>
+        <f>L22</f>
         <v>97.297297297297305</v>
       </c>
       <c r="D48" s="58">
         <f t="shared" si="23"/>
         <v>3.0555555555555891E-3</v>
       </c>
-      <c r="E48" s="67">
+      <c r="E48" s="66">
         <f t="shared" si="24"/>
         <v>100.30649205906938</v>
       </c>
-      <c r="F48" s="64" t="s">
+      <c r="F48" s="63" t="s">
         <v>39</v>
       </c>
       <c r="G48" s="44">
-        <f>O31</f>
+        <f>O22</f>
         <v>32.432432432432435</v>
       </c>
-      <c r="H48" s="29">
+      <c r="H48" s="44">
         <f>G60</f>
         <v>33</v>
       </c>
       <c r="I48" s="43">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>1.7199017199017064E-2</v>
-      </c>
-      <c r="J48" s="71"/>
-      <c r="K48" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="L48" s="44" t="str">
-        <f t="shared" si="22"/>
-        <v>greetings</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
@@ -3119,1095 +3121,1094 @@
         <f>SUM(C37:C48)</f>
         <v>2951.2238108673628</v>
       </c>
-      <c r="D49" s="66">
+      <c r="D49" s="65">
         <f t="shared" si="23"/>
         <v>2.4477340013191462E-3</v>
       </c>
-      <c r="E49" s="68">
+      <c r="E49" s="67">
         <f>C49/B49*100</f>
         <v>100.24537401044032</v>
       </c>
       <c r="F49" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="64">
         <f>SUM(G37:G48)</f>
         <v>983.74127028912073</v>
       </c>
-      <c r="H49" s="59">
+      <c r="H49" s="64">
         <f>SUM(H37:H48)</f>
         <v>988</v>
       </c>
-      <c r="I49" s="84">
+      <c r="I49" s="83">
         <f>1-G49/H49</f>
         <v>4.3104551729546969E-3</v>
       </c>
-      <c r="J49" s="71"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I50" s="70"/>
-      <c r="J50" s="71"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="70"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="91" t="s">
+      <c r="A51" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="91"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="91"/>
-      <c r="I51" s="91"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="83" t="s">
+      <c r="E52" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="F52" s="83" t="s">
+      <c r="F52" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="G52" s="83" t="s">
+      <c r="G52" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="H52" s="83" t="s">
+      <c r="H52" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="I52" s="83" t="s">
+      <c r="I52" s="82" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="86" t="s">
+      <c r="A53" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="87">
+      <c r="B53" s="86">
         <v>2.7E-2</v>
       </c>
-      <c r="C53" s="87">
+      <c r="C53" s="86">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="D53" s="87">
+      <c r="D53" s="86">
         <v>6.3E-2</v>
       </c>
-      <c r="E53" s="87">
+      <c r="E53" s="86">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F53" s="87">
+      <c r="F53" s="86">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G53" s="87">
+      <c r="G53" s="86">
         <v>59</v>
       </c>
-      <c r="H53" s="87">
-        <v>0</v>
-      </c>
-      <c r="I53" s="87">
+      <c r="H53" s="86">
+        <v>0</v>
+      </c>
+      <c r="I53" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="86" t="s">
+      <c r="A54" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="B54" s="87">
+      <c r="B54" s="86">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="C54" s="87">
+      <c r="C54" s="86">
         <v>0.104</v>
       </c>
-      <c r="D54" s="87">
+      <c r="D54" s="86">
         <v>0.113</v>
       </c>
-      <c r="E54" s="87">
+      <c r="E54" s="86">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="F54" s="87">
+      <c r="F54" s="86">
         <v>0.112</v>
       </c>
-      <c r="G54" s="87">
+      <c r="G54" s="86">
         <v>24</v>
       </c>
-      <c r="H54" s="87">
-        <v>0</v>
-      </c>
-      <c r="I54" s="87">
+      <c r="H54" s="86">
+        <v>0</v>
+      </c>
+      <c r="I54" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="86" t="s">
+      <c r="A55" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="87">
+      <c r="B55" s="86">
         <v>2.7E-2</v>
       </c>
-      <c r="C55" s="87">
+      <c r="C55" s="86">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D55" s="87">
+      <c r="D55" s="86">
         <v>6.2E-2</v>
       </c>
-      <c r="E55" s="87">
+      <c r="E55" s="86">
         <v>0.01</v>
       </c>
-      <c r="F55" s="87">
+      <c r="F55" s="86">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="G55" s="87">
+      <c r="G55" s="86">
         <v>90</v>
       </c>
-      <c r="H55" s="87">
-        <v>0</v>
-      </c>
-      <c r="I55" s="87">
+      <c r="H55" s="86">
+        <v>0</v>
+      </c>
+      <c r="I55" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="86" t="s">
+      <c r="A56" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="B56" s="87">
+      <c r="B56" s="86">
         <v>2.3E-2</v>
       </c>
-      <c r="C56" s="87">
+      <c r="C56" s="86">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="D56" s="87">
+      <c r="D56" s="86">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E56" s="87">
+      <c r="E56" s="86">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F56" s="87">
+      <c r="F56" s="86">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G56" s="87">
+      <c r="G56" s="86">
         <v>33</v>
       </c>
-      <c r="H56" s="87">
-        <v>0</v>
-      </c>
-      <c r="I56" s="87">
+      <c r="H56" s="86">
+        <v>0</v>
+      </c>
+      <c r="I56" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="86" t="s">
+      <c r="A57" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="87">
+      <c r="B57" s="86">
         <v>2.4E-2</v>
       </c>
-      <c r="C57" s="87">
+      <c r="C57" s="86">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="D57" s="87">
+      <c r="D57" s="86">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="E57" s="87">
+      <c r="E57" s="86">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="F57" s="87">
+      <c r="F57" s="86">
         <v>0.05</v>
       </c>
-      <c r="G57" s="87">
+      <c r="G57" s="86">
         <v>33</v>
       </c>
-      <c r="H57" s="87">
-        <v>0</v>
-      </c>
-      <c r="I57" s="87">
+      <c r="H57" s="86">
+        <v>0</v>
+      </c>
+      <c r="I57" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="87">
+      <c r="B58" s="86">
         <v>0.17699999999999999</v>
       </c>
-      <c r="C58" s="87">
+      <c r="C58" s="86">
         <v>0.221</v>
       </c>
-      <c r="D58" s="87">
+      <c r="D58" s="86">
         <v>0.27500000000000002</v>
       </c>
-      <c r="E58" s="87">
+      <c r="E58" s="86">
         <v>2.3E-2</v>
       </c>
-      <c r="F58" s="87">
+      <c r="F58" s="86">
         <v>0.25900000000000001</v>
       </c>
-      <c r="G58" s="87">
+      <c r="G58" s="86">
         <v>143</v>
       </c>
-      <c r="H58" s="87">
-        <v>0</v>
-      </c>
-      <c r="I58" s="87">
+      <c r="H58" s="86">
+        <v>0</v>
+      </c>
+      <c r="I58" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="86" t="s">
+      <c r="A59" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="87">
+      <c r="B59" s="86">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="C59" s="87">
+      <c r="C59" s="86">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="D59" s="87">
+      <c r="D59" s="86">
         <v>6.2E-2</v>
       </c>
-      <c r="E59" s="87">
+      <c r="E59" s="86">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F59" s="87">
+      <c r="F59" s="86">
         <v>5.5E-2</v>
       </c>
-      <c r="G59" s="87">
+      <c r="G59" s="86">
         <v>92</v>
       </c>
-      <c r="H59" s="87">
-        <v>0</v>
-      </c>
-      <c r="I59" s="87">
+      <c r="H59" s="86">
+        <v>0</v>
+      </c>
+      <c r="I59" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="86" t="s">
+      <c r="A60" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="87">
+      <c r="B60" s="86">
         <v>0.18099999999999999</v>
       </c>
-      <c r="C60" s="87">
+      <c r="C60" s="86">
         <v>0.221</v>
       </c>
-      <c r="D60" s="87">
+      <c r="D60" s="86">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E60" s="87">
+      <c r="E60" s="86">
         <v>2.4E-2</v>
       </c>
-      <c r="F60" s="87">
+      <c r="F60" s="86">
         <v>0.26100000000000001</v>
       </c>
-      <c r="G60" s="87">
+      <c r="G60" s="86">
         <v>33</v>
       </c>
-      <c r="H60" s="87">
-        <v>0</v>
-      </c>
-      <c r="I60" s="87">
+      <c r="H60" s="86">
+        <v>0</v>
+      </c>
+      <c r="I60" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="86" t="s">
+      <c r="A61" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B61" s="87">
+      <c r="B61" s="86">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="C61" s="87">
+      <c r="C61" s="86">
         <v>0.121</v>
       </c>
-      <c r="D61" s="87">
+      <c r="D61" s="86">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E61" s="87">
+      <c r="E61" s="86">
         <v>1.2E-2</v>
       </c>
-      <c r="F61" s="87">
+      <c r="F61" s="86">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G61" s="87">
+      <c r="G61" s="86">
         <v>108</v>
       </c>
-      <c r="H61" s="87">
-        <v>0</v>
-      </c>
-      <c r="I61" s="87">
+      <c r="H61" s="86">
+        <v>0</v>
+      </c>
+      <c r="I61" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="B62" s="87">
+      <c r="B62" s="86">
         <v>0.187</v>
       </c>
-      <c r="C62" s="87">
+      <c r="C62" s="86">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D62" s="87">
+      <c r="D62" s="86">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E62" s="87">
+      <c r="E62" s="86">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="F62" s="87">
+      <c r="F62" s="86">
         <v>0.26400000000000001</v>
       </c>
-      <c r="G62" s="87">
+      <c r="G62" s="86">
         <v>102</v>
       </c>
-      <c r="H62" s="87">
+      <c r="H62" s="86">
         <v>1</v>
       </c>
-      <c r="I62" s="87">
+      <c r="I62" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="86" t="s">
+      <c r="A63" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="B63" s="87">
+      <c r="B63" s="86">
         <v>0.17799999999999999</v>
       </c>
-      <c r="C63" s="87">
+      <c r="C63" s="86">
         <v>0.24</v>
       </c>
-      <c r="D63" s="87">
+      <c r="D63" s="86">
         <v>0.28199999999999997</v>
       </c>
-      <c r="E63" s="87">
+      <c r="E63" s="86">
         <v>2.4E-2</v>
       </c>
-      <c r="F63" s="87">
+      <c r="F63" s="86">
         <v>0.26800000000000002</v>
       </c>
-      <c r="G63" s="87">
+      <c r="G63" s="86">
         <v>93</v>
       </c>
-      <c r="H63" s="87">
-        <v>0</v>
-      </c>
-      <c r="I63" s="87">
+      <c r="H63" s="86">
+        <v>0</v>
+      </c>
+      <c r="I63" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="86" t="s">
+      <c r="A64" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="B64" s="87">
+      <c r="B64" s="86">
         <v>0.192</v>
       </c>
-      <c r="C64" s="87">
+      <c r="C64" s="86">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D64" s="87">
+      <c r="D64" s="86">
         <v>0.24199999999999999</v>
       </c>
-      <c r="E64" s="87">
+      <c r="E64" s="86">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="F64" s="87">
+      <c r="F64" s="86">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G64" s="87">
+      <c r="G64" s="86">
         <v>178</v>
       </c>
-      <c r="H64" s="87">
-        <v>0</v>
-      </c>
-      <c r="I64" s="87">
+      <c r="H64" s="86">
+        <v>0</v>
+      </c>
+      <c r="I64" s="86">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="88" t="s">
+      <c r="A65" s="87" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="89">
+      <c r="B65" s="88">
         <v>0.72099999999999997</v>
       </c>
-      <c r="C65" s="89">
+      <c r="C65" s="88">
         <v>0.82599999999999996</v>
       </c>
-      <c r="D65" s="89">
+      <c r="D65" s="88">
         <v>0.91700000000000004</v>
       </c>
-      <c r="E65" s="89">
+      <c r="E65" s="88">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F65" s="89">
+      <c r="F65" s="88">
         <v>0.86599999999999999</v>
       </c>
-      <c r="G65" s="89">
+      <c r="G65" s="88">
         <v>31</v>
       </c>
-      <c r="H65" s="89">
+      <c r="H65" s="88">
         <v>1</v>
       </c>
-      <c r="I65" s="89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="88" t="s">
+      <c r="I65" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="111" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="89">
+      <c r="B66" s="88">
         <v>0.72199999999999998</v>
       </c>
-      <c r="C66" s="89">
+      <c r="C66" s="88">
         <v>0.82699999999999996</v>
       </c>
-      <c r="D66" s="89">
+      <c r="D66" s="88">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E66" s="89">
+      <c r="E66" s="88">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F66" s="89">
+      <c r="F66" s="88">
         <v>0.86699999999999999</v>
       </c>
-      <c r="G66" s="89">
+      <c r="G66" s="88">
         <v>31</v>
       </c>
-      <c r="H66" s="89">
+      <c r="H66" s="88">
         <v>1</v>
       </c>
-      <c r="I66" s="89">
+      <c r="I66" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="88" t="s">
+      <c r="A67" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="89">
+      <c r="B67" s="88">
         <v>1.075</v>
       </c>
-      <c r="C67" s="89">
+      <c r="C67" s="88">
         <v>1.1739999999999999</v>
       </c>
-      <c r="D67" s="89">
+      <c r="D67" s="88">
         <v>1.2549999999999999</v>
       </c>
-      <c r="E67" s="89">
+      <c r="E67" s="88">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F67" s="89">
+      <c r="F67" s="88">
         <v>1.2230000000000001</v>
       </c>
-      <c r="G67" s="89">
+      <c r="G67" s="88">
         <v>59</v>
       </c>
-      <c r="H67" s="89">
-        <v>0</v>
-      </c>
-      <c r="I67" s="89">
+      <c r="H67" s="88">
+        <v>0</v>
+      </c>
+      <c r="I67" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="88" t="s">
+      <c r="A68" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="89">
+      <c r="B68" s="88">
         <v>1.0760000000000001</v>
       </c>
-      <c r="C68" s="89">
+      <c r="C68" s="88">
         <v>1.175</v>
       </c>
-      <c r="D68" s="89">
+      <c r="D68" s="88">
         <v>1.2549999999999999</v>
       </c>
-      <c r="E68" s="89">
+      <c r="E68" s="88">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="F68" s="89">
+      <c r="F68" s="88">
         <v>1.224</v>
       </c>
-      <c r="G68" s="89">
+      <c r="G68" s="88">
         <v>59</v>
       </c>
-      <c r="H68" s="89">
-        <v>0</v>
-      </c>
-      <c r="I68" s="89">
+      <c r="H68" s="88">
+        <v>0</v>
+      </c>
+      <c r="I68" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="88" t="s">
+      <c r="A69" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="89">
+      <c r="B69" s="88">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C69" s="89">
+      <c r="C69" s="88">
         <v>0.80600000000000005</v>
       </c>
-      <c r="D69" s="89">
+      <c r="D69" s="88">
         <v>0.873</v>
       </c>
-      <c r="E69" s="89">
+      <c r="E69" s="88">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F69" s="89">
+      <c r="F69" s="88">
         <v>0.84</v>
       </c>
-      <c r="G69" s="89">
+      <c r="G69" s="88">
         <v>25</v>
       </c>
-      <c r="H69" s="89">
-        <v>0</v>
-      </c>
-      <c r="I69" s="89">
+      <c r="H69" s="88">
+        <v>0</v>
+      </c>
+      <c r="I69" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="88" t="s">
+      <c r="A70" s="87" t="s">
         <v>85</v>
       </c>
-      <c r="B70" s="89">
+      <c r="B70" s="88">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C70" s="89">
+      <c r="C70" s="88">
         <v>0.80600000000000005</v>
       </c>
-      <c r="D70" s="89">
+      <c r="D70" s="88">
         <v>0.873</v>
       </c>
-      <c r="E70" s="89">
+      <c r="E70" s="88">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F70" s="89">
+      <c r="F70" s="88">
         <v>0.84</v>
       </c>
-      <c r="G70" s="89">
+      <c r="G70" s="88">
         <v>25</v>
       </c>
-      <c r="H70" s="89">
-        <v>0</v>
-      </c>
-      <c r="I70" s="89">
+      <c r="H70" s="88">
+        <v>0</v>
+      </c>
+      <c r="I70" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="88" t="s">
+      <c r="A71" s="87" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="89">
+      <c r="B71" s="88">
         <v>0.81</v>
       </c>
-      <c r="C71" s="89">
+      <c r="C71" s="88">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D71" s="89">
+      <c r="D71" s="88">
         <v>0.96899999999999997</v>
       </c>
-      <c r="E71" s="89">
+      <c r="E71" s="88">
         <v>0.05</v>
       </c>
-      <c r="F71" s="89">
+      <c r="F71" s="88">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G71" s="89">
+      <c r="G71" s="88">
         <v>10</v>
       </c>
-      <c r="H71" s="89">
-        <v>0</v>
-      </c>
-      <c r="I71" s="89">
+      <c r="H71" s="88">
+        <v>0</v>
+      </c>
+      <c r="I71" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="88" t="s">
+      <c r="A72" s="87" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="89">
+      <c r="B72" s="88">
         <v>0.81</v>
       </c>
-      <c r="C72" s="89">
+      <c r="C72" s="88">
         <v>0.88500000000000001</v>
       </c>
-      <c r="D72" s="89">
+      <c r="D72" s="88">
         <v>0.97</v>
       </c>
-      <c r="E72" s="89">
+      <c r="E72" s="88">
         <v>0.05</v>
       </c>
-      <c r="F72" s="89">
+      <c r="F72" s="88">
         <v>0.93799999999999994</v>
       </c>
-      <c r="G72" s="89">
+      <c r="G72" s="88">
         <v>10</v>
       </c>
-      <c r="H72" s="89">
-        <v>0</v>
-      </c>
-      <c r="I72" s="89">
+      <c r="H72" s="88">
+        <v>0</v>
+      </c>
+      <c r="I72" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="88" t="s">
+      <c r="A73" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="89">
+      <c r="B73" s="88">
         <v>0.47599999999999998</v>
       </c>
-      <c r="C73" s="89">
+      <c r="C73" s="88">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D73" s="89">
+      <c r="D73" s="88">
         <v>0.61899999999999999</v>
       </c>
-      <c r="E73" s="89">
+      <c r="E73" s="88">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F73" s="89">
+      <c r="F73" s="88">
         <v>0.57799999999999996</v>
       </c>
-      <c r="G73" s="89">
+      <c r="G73" s="88">
         <v>49</v>
       </c>
-      <c r="H73" s="89">
-        <v>0</v>
-      </c>
-      <c r="I73" s="89">
+      <c r="H73" s="88">
+        <v>0</v>
+      </c>
+      <c r="I73" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="88" t="s">
+      <c r="A74" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="89">
+      <c r="B74" s="88">
         <v>0.47699999999999998</v>
       </c>
-      <c r="C74" s="89">
+      <c r="C74" s="88">
         <v>0.54800000000000004</v>
       </c>
-      <c r="D74" s="89">
+      <c r="D74" s="88">
         <v>0.62</v>
       </c>
-      <c r="E74" s="89">
+      <c r="E74" s="88">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="F74" s="89">
+      <c r="F74" s="88">
         <v>0.57799999999999996</v>
       </c>
-      <c r="G74" s="89">
+      <c r="G74" s="88">
         <v>49</v>
       </c>
-      <c r="H74" s="89">
-        <v>0</v>
-      </c>
-      <c r="I74" s="89">
+      <c r="H74" s="88">
+        <v>0</v>
+      </c>
+      <c r="I74" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="88" t="s">
+      <c r="A75" s="87" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="89">
-        <v>0</v>
-      </c>
-      <c r="C75" s="89">
-        <v>0</v>
-      </c>
-      <c r="D75" s="89">
-        <v>0</v>
-      </c>
-      <c r="E75" s="89">
-        <v>0</v>
-      </c>
-      <c r="F75" s="89">
-        <v>0</v>
-      </c>
-      <c r="G75" s="89">
+      <c r="B75" s="88">
+        <v>0</v>
+      </c>
+      <c r="C75" s="88">
+        <v>0</v>
+      </c>
+      <c r="D75" s="88">
+        <v>0</v>
+      </c>
+      <c r="E75" s="88">
+        <v>0</v>
+      </c>
+      <c r="F75" s="88">
+        <v>0</v>
+      </c>
+      <c r="G75" s="88">
         <v>3</v>
       </c>
-      <c r="H75" s="89">
-        <v>0</v>
-      </c>
-      <c r="I75" s="89">
+      <c r="H75" s="88">
+        <v>0</v>
+      </c>
+      <c r="I75" s="88">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="82"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="82"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="82"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="82"/>
-      <c r="G77" s="82"/>
-      <c r="H77" s="82"/>
-      <c r="I77" s="82"/>
+      <c r="A77" s="81"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="82"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="82"/>
-      <c r="D78" s="82"/>
-      <c r="E78" s="82"/>
-      <c r="F78" s="82"/>
-      <c r="G78" s="82"/>
-      <c r="H78" s="82"/>
-      <c r="I78" s="82"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="82"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="82"/>
-      <c r="D79" s="82"/>
-      <c r="E79" s="82"/>
-      <c r="F79" s="82"/>
-      <c r="G79" s="82"/>
-      <c r="H79" s="82"/>
-      <c r="I79" s="82"/>
+      <c r="A79" s="81"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="81"/>
+      <c r="D79" s="81"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="81"/>
+      <c r="I79" s="81"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="82"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="82"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="82"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="82"/>
+      <c r="A80" s="81"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="81"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="81"/>
+      <c r="G80" s="81"/>
+      <c r="H80" s="81"/>
+      <c r="I80" s="81"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="82"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="82"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="82"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="82"/>
-      <c r="B82" s="82"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="82"/>
-      <c r="H82" s="82"/>
-      <c r="I82" s="82"/>
+      <c r="A82" s="81"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="81"/>
+      <c r="I82" s="81"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="82"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="82"/>
-      <c r="D83" s="82"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="82"/>
-      <c r="G83" s="82"/>
-      <c r="H83" s="82"/>
-      <c r="I83" s="82"/>
+      <c r="A83" s="81"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="81"/>
+      <c r="D83" s="81"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="81"/>
+      <c r="G83" s="81"/>
+      <c r="H83" s="81"/>
+      <c r="I83" s="81"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="82"/>
+      <c r="A84" s="81"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="81"/>
+      <c r="D84" s="81"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="81"/>
+      <c r="G84" s="81"/>
+      <c r="H84" s="81"/>
+      <c r="I84" s="81"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="82"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="82"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="82"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="82"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="82"/>
-      <c r="H86" s="82"/>
-      <c r="I86" s="82"/>
+      <c r="A86" s="81"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="82"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="82"/>
-      <c r="D87" s="82"/>
-      <c r="E87" s="82"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="82"/>
-      <c r="H87" s="82"/>
-      <c r="I87" s="82"/>
+      <c r="A87" s="81"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="81"/>
+      <c r="E87" s="81"/>
+      <c r="F87" s="81"/>
+      <c r="G87" s="81"/>
+      <c r="H87" s="81"/>
+      <c r="I87" s="81"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="82"/>
-      <c r="H88" s="82"/>
-      <c r="I88" s="82"/>
+      <c r="A88" s="81"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="81"/>
+      <c r="E88" s="81"/>
+      <c r="F88" s="81"/>
+      <c r="G88" s="81"/>
+      <c r="H88" s="81"/>
+      <c r="I88" s="81"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="82"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="82"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82"/>
-      <c r="I89" s="82"/>
+      <c r="A89" s="81"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="81"/>
+      <c r="E89" s="81"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="81"/>
+      <c r="I89" s="81"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="82"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="82"/>
-      <c r="I90" s="82"/>
+      <c r="A90" s="81"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="81"/>
+      <c r="E90" s="81"/>
+      <c r="F90" s="81"/>
+      <c r="G90" s="81"/>
+      <c r="H90" s="81"/>
+      <c r="I90" s="81"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="82"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="82"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82"/>
+      <c r="A91" s="81"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="81"/>
+      <c r="G91" s="81"/>
+      <c r="H91" s="81"/>
+      <c r="I91" s="81"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="82"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82"/>
-      <c r="I92" s="82"/>
+      <c r="A92" s="81"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="82"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="82"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="82"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="82"/>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
+      <c r="A93" s="81"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="81"/>
+      <c r="E93" s="81"/>
+      <c r="F93" s="81"/>
+      <c r="G93" s="81"/>
+      <c r="H93" s="81"/>
+      <c r="I93" s="81"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="82"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
+      <c r="A94" s="81"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="81"/>
+      <c r="E94" s="81"/>
+      <c r="F94" s="81"/>
+      <c r="G94" s="81"/>
+      <c r="H94" s="81"/>
+      <c r="I94" s="81"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="82"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="82"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="82"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="81"/>
+      <c r="G95" s="81"/>
+      <c r="H95" s="81"/>
+      <c r="I95" s="81"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
+      <c r="A96" s="81"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="81"/>
+      <c r="E96" s="81"/>
+      <c r="F96" s="81"/>
+      <c r="G96" s="81"/>
+      <c r="H96" s="81"/>
+      <c r="I96" s="81"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="82"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="82"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="82"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="82"/>
-      <c r="H97" s="82"/>
-      <c r="I97" s="82"/>
+      <c r="A97" s="81"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="81"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="82"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
+      <c r="A98" s="81"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
+      <c r="G98" s="81"/>
+      <c r="H98" s="81"/>
+      <c r="I98" s="81"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="82"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="82"/>
-      <c r="H99" s="82"/>
-      <c r="I99" s="82"/>
+      <c r="A99" s="81"/>
+      <c r="B99" s="81"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="81"/>
+      <c r="G99" s="81"/>
+      <c r="H99" s="81"/>
+      <c r="I99" s="81"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="82"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="82"/>
-      <c r="H100" s="82"/>
-      <c r="I100" s="82"/>
+      <c r="A100" s="81"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="81"/>
+      <c r="G100" s="81"/>
+      <c r="H100" s="81"/>
+      <c r="I100" s="81"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="82"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="82"/>
-      <c r="D101" s="82"/>
-      <c r="E101" s="82"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="82"/>
-      <c r="H101" s="82"/>
-      <c r="I101" s="82"/>
+      <c r="A101" s="81"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="81"/>
+      <c r="E101" s="81"/>
+      <c r="F101" s="81"/>
+      <c r="G101" s="81"/>
+      <c r="H101" s="81"/>
+      <c r="I101" s="81"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="82"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="82"/>
-      <c r="H102" s="82"/>
-      <c r="I102" s="82"/>
+      <c r="A102" s="81"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="81"/>
+      <c r="E102" s="81"/>
+      <c r="F102" s="81"/>
+      <c r="G102" s="81"/>
+      <c r="H102" s="81"/>
+      <c r="I102" s="81"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="82"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="82"/>
-      <c r="D103" s="82"/>
-      <c r="E103" s="82"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="82"/>
-      <c r="H103" s="82"/>
-      <c r="I103" s="82"/>
+      <c r="A103" s="81"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="81"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="81"/>
+      <c r="I103" s="81"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="82"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="82"/>
+      <c r="A104" s="81"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="81"/>
+      <c r="I104" s="81"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="82"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="82"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="82"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="82"/>
+      <c r="A105" s="81"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="81"/>
+      <c r="G105" s="81"/>
+      <c r="H105" s="81"/>
+      <c r="I105" s="81"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="82"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
-      <c r="F106" s="82"/>
-      <c r="G106" s="82"/>
-      <c r="H106" s="82"/>
-      <c r="I106" s="82"/>
+      <c r="A106" s="81"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="81"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="81"/>
+      <c r="G106" s="81"/>
+      <c r="H106" s="81"/>
+      <c r="I106" s="81"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="82"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="82"/>
-      <c r="D107" s="82"/>
-      <c r="E107" s="82"/>
-      <c r="F107" s="82"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="82"/>
-      <c r="I107" s="82"/>
+      <c r="A107" s="81"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="81"/>
+      <c r="D107" s="81"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="81"/>
+      <c r="G107" s="81"/>
+      <c r="H107" s="81"/>
+      <c r="I107" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4250,10 +4251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280420F6-55B5-4EA7-8316-B0DD69CF94DF}">
-  <dimension ref="B3:S24"/>
+  <dimension ref="B3:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,7 +4376,7 @@
         <f t="shared" ref="M4:M15" si="0">K4-L4</f>
         <v>-5</v>
       </c>
-      <c r="N4" s="72"/>
+      <c r="N4" s="71"/>
       <c r="O4" s="8">
         <f>M4-N4</f>
         <v>-5</v>
@@ -4401,7 +4402,7 @@
       <c r="C5" s="1">
         <v>422</v>
       </c>
-      <c r="D5" s="72"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="8">
         <f t="shared" ref="E5:E15" si="3">C5-D5</f>
         <v>422</v>
@@ -4434,7 +4435,7 @@
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="N5" s="72"/>
+      <c r="N5" s="71"/>
       <c r="O5" s="8">
         <f t="shared" ref="O5:O15" si="7">M5-N5</f>
         <v>-6</v>
@@ -4474,7 +4475,7 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="H6" s="72"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="8">
         <f t="shared" si="5"/>
         <v>29</v>
@@ -4486,12 +4487,12 @@
         <f t="shared" si="6"/>
         <v>-2</v>
       </c>
-      <c r="L6" s="72"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="8">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="N6" s="72"/>
+      <c r="N6" s="71"/>
       <c r="O6" s="8">
         <f t="shared" si="7"/>
         <v>-2</v>
@@ -4531,12 +4532,12 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="H7" s="72"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="8">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J7" s="72"/>
+      <c r="J7" s="71"/>
       <c r="K7" s="8">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -4546,7 +4547,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="N7" s="72"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="8">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -4586,12 +4587,12 @@
         <f>E8-F8</f>
         <v>-6</v>
       </c>
-      <c r="H8" s="72"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="8">
         <f t="shared" si="5"/>
         <v>-6</v>
       </c>
-      <c r="J8" s="72"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="8">
         <f t="shared" si="6"/>
         <v>-6</v>
@@ -4601,7 +4602,7 @@
         <f t="shared" si="0"/>
         <v>-6</v>
       </c>
-      <c r="N8" s="72"/>
+      <c r="N8" s="71"/>
       <c r="O8" s="8">
         <f t="shared" si="7"/>
         <v>-6</v>
@@ -4627,7 +4628,7 @@
       <c r="C9" s="1">
         <v>175</v>
       </c>
-      <c r="D9" s="72"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="8">
         <f>C9-D9</f>
         <v>175</v>
@@ -4639,12 +4640,12 @@
         <f>E9-F9</f>
         <v>-4</v>
       </c>
-      <c r="H9" s="72"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="8">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="J9" s="72"/>
+      <c r="J9" s="71"/>
       <c r="K9" s="8">
         <f>I9-J9</f>
         <v>-4</v>
@@ -4654,7 +4655,7 @@
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
-      <c r="N9" s="72"/>
+      <c r="N9" s="71"/>
       <c r="O9" s="8">
         <f t="shared" si="7"/>
         <v>-4</v>
@@ -4680,7 +4681,7 @@
       <c r="C10" s="1">
         <v>280</v>
       </c>
-      <c r="D10" s="72"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="8">
         <f t="shared" si="3"/>
         <v>280</v>
@@ -4711,7 +4712,7 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
-      <c r="N10" s="72"/>
+      <c r="N10" s="71"/>
       <c r="O10" s="8">
         <f t="shared" si="7"/>
         <v>-3</v>
@@ -4737,12 +4738,12 @@
       <c r="C11" s="1">
         <v>73</v>
       </c>
-      <c r="D11" s="72"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="8">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="F11" s="72"/>
+      <c r="F11" s="71"/>
       <c r="G11" s="8">
         <f t="shared" si="9"/>
         <v>73</v>
@@ -4754,7 +4755,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11" s="72"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -4764,7 +4765,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="72"/>
+      <c r="N11" s="71"/>
       <c r="O11" s="8">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -4790,7 +4791,7 @@
       <c r="C12" s="1">
         <v>326</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="71"/>
       <c r="E12" s="8">
         <f>C12-D12</f>
         <v>326</v>
@@ -4802,12 +4803,12 @@
         <f t="shared" si="9"/>
         <v>147</v>
       </c>
-      <c r="H12" s="72"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="8">
         <f t="shared" si="5"/>
         <v>147</v>
       </c>
-      <c r="J12" s="72"/>
+      <c r="J12" s="71"/>
       <c r="K12" s="8">
         <f t="shared" si="10"/>
         <v>147</v>
@@ -4819,7 +4820,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N12" s="72"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="8">
         <f t="shared" si="7"/>
         <v>2</v>
@@ -5071,34 +5072,34 @@
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="82"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="81"/>
     </row>
     <row r="19" spans="2:19" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="78" t="s">
+      <c r="G19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="77" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5247,7 +5248,1788 @@
         <v>4.0540540540540543E-2</v>
       </c>
     </row>
+    <row r="27" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="29" t="str">
+        <f>'Автоматизированный расчет'!F37</f>
+        <v>open_start_page</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="29" t="str">
+        <f>'Автоматизированный расчет'!F38</f>
+        <v>do_login</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="29" t="str">
+        <f>'Автоматизированный расчет'!F39</f>
+        <v>open_flights</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="29" t="str">
+        <f>'Автоматизированный расчет'!F40</f>
+        <v>find_flights</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="29" t="str">
+        <f>'Автоматизированный расчет'!F41</f>
+        <v>choose_flights</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="29" t="str">
+        <f>'Автоматизированный расчет'!F42</f>
+        <v>buy_flights</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="29" t="str">
+        <f>'Автоматизированный расчет'!F43</f>
+        <v>open_itinerary</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="44" t="str">
+        <f>'Автоматизированный расчет'!F44</f>
+        <v>cancel_itinerary</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="44" t="str">
+        <f>'Автоматизированный расчет'!F45</f>
+        <v>logout</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="44" t="str">
+        <f>'Автоматизированный расчет'!F46</f>
+        <v>customer_profile</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="44" t="str">
+        <f>'Автоматизированный расчет'!F47</f>
+        <v>confirmation</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="44" t="str">
+        <f>'Автоматизированный расчет'!F48</f>
+        <v>greetings</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB669F7-D5BC-499B-9DA6-42661A35C29C}">
+  <dimension ref="B2:M32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="116" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="116" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="118"/>
+    </row>
+    <row r="3" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="96">
+        <f>'Автоматизированный расчет'!O10</f>
+        <v>174.75676196749509</v>
+      </c>
+      <c r="D4" s="96">
+        <v>176</v>
+      </c>
+      <c r="E4" s="97">
+        <f t="shared" ref="E4:E16" si="0">1-C4/D4</f>
+        <v>7.0638524574142547E-3</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="96">
+        <f>C4*2</f>
+        <v>349.51352393499019</v>
+      </c>
+      <c r="H4" s="96">
+        <v>351</v>
+      </c>
+      <c r="I4" s="97">
+        <f t="shared" ref="I4:I16" si="1">1-G4/H4</f>
+        <v>4.2349745441875308E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="96">
+        <f>'Автоматизированный расчет'!O11</f>
+        <v>142.32432953506265</v>
+      </c>
+      <c r="D5" s="96">
+        <v>143</v>
+      </c>
+      <c r="E5" s="97">
+        <f t="shared" si="0"/>
+        <v>4.7249682862752218E-3</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="96">
+        <f>C5*2</f>
+        <v>284.64865907012529</v>
+      </c>
+      <c r="H5" s="96">
+        <v>286</v>
+      </c>
+      <c r="I5" s="97">
+        <f t="shared" si="1"/>
+        <v>4.7249682862752218E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="96">
+        <f>'Автоматизированный расчет'!O12</f>
+        <v>101.6183174004791</v>
+      </c>
+      <c r="D6" s="96">
+        <v>103</v>
+      </c>
+      <c r="E6" s="97">
+        <f t="shared" si="0"/>
+        <v>1.3414394170105814E-2</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="96">
+        <f>C6*2</f>
+        <v>203.2366348009582</v>
+      </c>
+      <c r="H6" s="96">
+        <v>204</v>
+      </c>
+      <c r="I6" s="97">
+        <f t="shared" si="1"/>
+        <v>3.7419862698127027E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="96">
+        <f>'Автоматизированный расчет'!O13</f>
+        <v>91.448825875055377</v>
+      </c>
+      <c r="D7" s="96">
+        <v>92</v>
+      </c>
+      <c r="E7" s="97">
+        <f t="shared" si="0"/>
+        <v>5.9910230972242129E-3</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="96">
+        <f t="shared" ref="G7:G10" si="2">C7*2</f>
+        <v>182.89765175011075</v>
+      </c>
+      <c r="H7" s="96">
+        <v>184</v>
+      </c>
+      <c r="I7" s="97">
+        <f t="shared" si="1"/>
+        <v>5.9910230972242129E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="96">
+        <f>'Автоматизированный расчет'!O14</f>
+        <v>91.448825875055377</v>
+      </c>
+      <c r="D8" s="96">
+        <v>91</v>
+      </c>
+      <c r="E8" s="97">
+        <f t="shared" si="0"/>
+        <v>-4.9321524731360533E-3</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="96">
+        <f t="shared" si="2"/>
+        <v>182.89765175011075</v>
+      </c>
+      <c r="H8" s="96">
+        <v>183</v>
+      </c>
+      <c r="I8" s="97">
+        <f t="shared" si="1"/>
+        <v>5.5928005403960146E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="96">
+        <f>'Автоматизированный расчет'!O15</f>
+        <v>59.016393442622942</v>
+      </c>
+      <c r="D9" s="96">
+        <v>59</v>
+      </c>
+      <c r="E9" s="97">
+        <f t="shared" si="0"/>
+        <v>-2.7785495971088814E-4</v>
+      </c>
+      <c r="F9" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="96">
+        <f t="shared" si="2"/>
+        <v>118.03278688524588</v>
+      </c>
+      <c r="H9" s="96">
+        <v>119</v>
+      </c>
+      <c r="I9" s="97">
+        <f t="shared" si="1"/>
+        <v>8.1278413004547412E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="96">
+        <f>'Автоматизированный расчет'!O16</f>
+        <v>93.675680886414014</v>
+      </c>
+      <c r="D10" s="96">
+        <v>94</v>
+      </c>
+      <c r="E10" s="97">
+        <f t="shared" si="0"/>
+        <v>3.4502033360210849E-3</v>
+      </c>
+      <c r="F10" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="96">
+        <f t="shared" si="2"/>
+        <v>187.35136177282803</v>
+      </c>
+      <c r="H10" s="96">
+        <v>186</v>
+      </c>
+      <c r="I10" s="97">
+        <f t="shared" si="1"/>
+        <v>-7.2653858754194722E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="96">
+        <f>'Автоматизированный расчет'!O17</f>
+        <v>24.489795918367349</v>
+      </c>
+      <c r="D11" s="96">
+        <v>24</v>
+      </c>
+      <c r="E11" s="97">
+        <f t="shared" si="0"/>
+        <v>-2.0408163265306145E-2</v>
+      </c>
+      <c r="F11" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="96">
+        <f>C11*2</f>
+        <v>48.979591836734699</v>
+      </c>
+      <c r="H11" s="96">
+        <v>48</v>
+      </c>
+      <c r="I11" s="97">
+        <f t="shared" si="1"/>
+        <v>-2.0408163265306145E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="96">
+        <f>'Автоматизированный расчет'!O18</f>
+        <v>107.66504209127159</v>
+      </c>
+      <c r="D12" s="96">
+        <v>107</v>
+      </c>
+      <c r="E12" s="97">
+        <f t="shared" si="0"/>
+        <v>-6.215346647397979E-3</v>
+      </c>
+      <c r="F12" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="96">
+        <f>C12*2</f>
+        <v>215.33008418254317</v>
+      </c>
+      <c r="H12" s="96">
+        <v>214</v>
+      </c>
+      <c r="I12" s="97">
+        <f t="shared" si="1"/>
+        <v>-6.215346647397979E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="96">
+        <f>'Автоматизированный расчет'!O20</f>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="D13" s="96">
+        <v>32</v>
+      </c>
+      <c r="E13" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+      <c r="F13" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="96">
+        <f>C13*2</f>
+        <v>64.86486486486487</v>
+      </c>
+      <c r="H13" s="96">
+        <v>64</v>
+      </c>
+      <c r="I13" s="97">
+        <f t="shared" si="1"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="96">
+        <f>'Автоматизированный расчет'!O21</f>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="D14" s="96">
+        <v>32</v>
+      </c>
+      <c r="E14" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+      <c r="F14" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="96">
+        <f>C14*2</f>
+        <v>64.86486486486487</v>
+      </c>
+      <c r="H14" s="96">
+        <v>64</v>
+      </c>
+      <c r="I14" s="97">
+        <f t="shared" si="1"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="96">
+        <f>'Автоматизированный расчет'!O22</f>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="D15" s="96">
+        <v>32</v>
+      </c>
+      <c r="E15" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+      <c r="F15" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="96">
+        <f>C15*2</f>
+        <v>64.86486486486487</v>
+      </c>
+      <c r="H15" s="96">
+        <v>64</v>
+      </c>
+      <c r="I15" s="97">
+        <f t="shared" si="1"/>
+        <v>-1.3513513513513598E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="98">
+        <f>SUM(C4:C15)</f>
+        <v>983.74127028912073</v>
+      </c>
+      <c r="D16" s="99">
+        <f>SUM(D4:D15)</f>
+        <v>985</v>
+      </c>
+      <c r="E16" s="100">
+        <f t="shared" si="0"/>
+        <v>1.2778981836337744E-3</v>
+      </c>
+      <c r="F16" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="98">
+        <f>SUM(G4:G15)</f>
+        <v>1967.4825405782415</v>
+      </c>
+      <c r="H16" s="99">
+        <f>SUM(H4:H15)</f>
+        <v>1967</v>
+      </c>
+      <c r="I16" s="100">
+        <f t="shared" si="1"/>
+        <v>-2.4531803672678265E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="116" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="118"/>
+    </row>
+    <row r="19" spans="2:13" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="96">
+        <f>C4*3</f>
+        <v>524.27028590248528</v>
+      </c>
+      <c r="D20" s="96">
+        <v>526</v>
+      </c>
+      <c r="E20" s="97">
+        <f t="shared" ref="E20:E32" si="3">1-C20/D20</f>
+        <v>3.2884298431838932E-3</v>
+      </c>
+      <c r="F20" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="96">
+        <f>C4*4</f>
+        <v>699.02704786998038</v>
+      </c>
+      <c r="H20" s="96">
+        <v>700</v>
+      </c>
+      <c r="I20" s="97">
+        <f t="shared" ref="I20:I32" si="4">1-G20/H20</f>
+        <v>1.3899316143137774E-3</v>
+      </c>
+      <c r="J20" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="96">
+        <f>C4*5</f>
+        <v>873.78380983747547</v>
+      </c>
+      <c r="L20" s="96">
+        <v>875</v>
+      </c>
+      <c r="M20" s="97">
+        <f t="shared" ref="M20:M32" si="5">1-K20/L20</f>
+        <v>1.3899316143137774E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="96">
+        <f>C5*3</f>
+        <v>426.97298860518794</v>
+      </c>
+      <c r="D21" s="96">
+        <v>426</v>
+      </c>
+      <c r="E21" s="97">
+        <f t="shared" si="3"/>
+        <v>-2.2840108103003853E-3</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="96">
+        <f>C5*4</f>
+        <v>569.29731814025058</v>
+      </c>
+      <c r="H21" s="96">
+        <v>570</v>
+      </c>
+      <c r="I21" s="97">
+        <f t="shared" si="4"/>
+        <v>1.2327751925428343E-3</v>
+      </c>
+      <c r="J21" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="96">
+        <f>C5*5</f>
+        <v>711.62164767531317</v>
+      </c>
+      <c r="L21" s="96">
+        <v>710</v>
+      </c>
+      <c r="M21" s="97">
+        <f t="shared" si="5"/>
+        <v>-2.2840108103001633E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="96">
+        <f>C6*3</f>
+        <v>304.8549522014373</v>
+      </c>
+      <c r="D22" s="96">
+        <v>304</v>
+      </c>
+      <c r="E22" s="97">
+        <f t="shared" si="3"/>
+        <v>-2.8123427678858892E-3</v>
+      </c>
+      <c r="F22" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="96">
+        <f>C6*4</f>
+        <v>406.4732696019164</v>
+      </c>
+      <c r="H22" s="96">
+        <v>406</v>
+      </c>
+      <c r="I22" s="97">
+        <f t="shared" si="4"/>
+        <v>-1.1656886746709283E-3</v>
+      </c>
+      <c r="J22" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="96">
+        <f>C6*5</f>
+        <v>508.0915870023955</v>
+      </c>
+      <c r="L22" s="96">
+        <v>508</v>
+      </c>
+      <c r="M22" s="97">
+        <f t="shared" si="5"/>
+        <v>-1.8028937479419582E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="96">
+        <f t="shared" ref="C23:C30" si="6">C7*3</f>
+        <v>274.34647762516613</v>
+      </c>
+      <c r="D23" s="96">
+        <v>274</v>
+      </c>
+      <c r="E23" s="97">
+        <f t="shared" si="3"/>
+        <v>-1.2645168801683759E-3</v>
+      </c>
+      <c r="F23" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="96">
+        <f t="shared" ref="G23:G30" si="7">C7*4</f>
+        <v>365.79530350022151</v>
+      </c>
+      <c r="H23" s="96">
+        <v>366</v>
+      </c>
+      <c r="I23" s="97">
+        <f t="shared" si="4"/>
+        <v>5.5928005403960146E-4</v>
+      </c>
+      <c r="J23" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="96">
+        <f t="shared" ref="K23:K31" si="8">C7*5</f>
+        <v>457.24412937527688</v>
+      </c>
+      <c r="L23" s="96">
+        <v>456</v>
+      </c>
+      <c r="M23" s="97">
+        <f t="shared" si="5"/>
+        <v>-2.7283538931510698E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="96">
+        <f t="shared" si="6"/>
+        <v>274.34647762516613</v>
+      </c>
+      <c r="D24" s="96">
+        <v>273</v>
+      </c>
+      <c r="E24" s="97">
+        <f t="shared" si="3"/>
+        <v>-4.9321524731360533E-3</v>
+      </c>
+      <c r="F24" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="96">
+        <f t="shared" si="7"/>
+        <v>365.79530350022151</v>
+      </c>
+      <c r="H24" s="96">
+        <v>365</v>
+      </c>
+      <c r="I24" s="97">
+        <f t="shared" si="4"/>
+        <v>-2.1789136992369507E-3</v>
+      </c>
+      <c r="J24" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="K24" s="96">
+        <f t="shared" si="8"/>
+        <v>457.24412937527688</v>
+      </c>
+      <c r="L24" s="96">
+        <v>456</v>
+      </c>
+      <c r="M24" s="97">
+        <f t="shared" si="5"/>
+        <v>-2.7283538931510698E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="96">
+        <f t="shared" si="6"/>
+        <v>177.04918032786884</v>
+      </c>
+      <c r="D25" s="96">
+        <v>178</v>
+      </c>
+      <c r="E25" s="97">
+        <f t="shared" si="3"/>
+        <v>5.3416835512986038E-3</v>
+      </c>
+      <c r="F25" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="96">
+        <f t="shared" si="7"/>
+        <v>236.06557377049177</v>
+      </c>
+      <c r="H25" s="96">
+        <v>238</v>
+      </c>
+      <c r="I25" s="97">
+        <f t="shared" si="4"/>
+        <v>8.1278413004547412E-3</v>
+      </c>
+      <c r="J25" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="96">
+        <f t="shared" si="8"/>
+        <v>295.08196721311469</v>
+      </c>
+      <c r="L25" s="96">
+        <v>295</v>
+      </c>
+      <c r="M25" s="97">
+        <f t="shared" si="5"/>
+        <v>-2.7785495971088814E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="96">
+        <f t="shared" si="6"/>
+        <v>281.02704265924206</v>
+      </c>
+      <c r="D26" s="96">
+        <v>280</v>
+      </c>
+      <c r="E26" s="97">
+        <f t="shared" si="3"/>
+        <v>-3.6680094972929567E-3</v>
+      </c>
+      <c r="F26" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="96">
+        <f t="shared" si="7"/>
+        <v>374.70272354565606</v>
+      </c>
+      <c r="H26" s="96">
+        <v>375</v>
+      </c>
+      <c r="I26" s="97">
+        <f t="shared" si="4"/>
+        <v>7.9273721158390487E-4</v>
+      </c>
+      <c r="J26" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" s="96">
+        <f t="shared" si="8"/>
+        <v>468.37840443207006</v>
+      </c>
+      <c r="L26" s="96">
+        <v>467</v>
+      </c>
+      <c r="M26" s="97">
+        <f t="shared" si="5"/>
+        <v>-2.9516154862314625E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="96">
+        <f t="shared" si="6"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="D27" s="96">
+        <v>73</v>
+      </c>
+      <c r="E27" s="97">
+        <f t="shared" si="3"/>
+        <v>-6.4299692479732329E-3</v>
+      </c>
+      <c r="F27" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="96">
+        <f t="shared" si="7"/>
+        <v>97.959183673469397</v>
+      </c>
+      <c r="H27" s="96">
+        <v>98</v>
+      </c>
+      <c r="I27" s="97">
+        <f t="shared" si="4"/>
+        <v>4.1649312786329329E-4</v>
+      </c>
+      <c r="J27" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="96">
+        <f t="shared" si="8"/>
+        <v>122.44897959183675</v>
+      </c>
+      <c r="L27" s="96">
+        <v>123</v>
+      </c>
+      <c r="M27" s="97">
+        <f t="shared" si="5"/>
+        <v>4.4798407167744303E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="96">
+        <f t="shared" si="6"/>
+        <v>322.99512627381478</v>
+      </c>
+      <c r="D28" s="96">
+        <v>321</v>
+      </c>
+      <c r="E28" s="97">
+        <f t="shared" si="3"/>
+        <v>-6.215346647397979E-3</v>
+      </c>
+      <c r="F28" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="96">
+        <f t="shared" si="7"/>
+        <v>430.66016836508635</v>
+      </c>
+      <c r="H28" s="96">
+        <v>431</v>
+      </c>
+      <c r="I28" s="97">
+        <f t="shared" si="4"/>
+        <v>7.8847247079738558E-4</v>
+      </c>
+      <c r="J28" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="K28" s="96">
+        <f t="shared" si="8"/>
+        <v>538.32521045635792</v>
+      </c>
+      <c r="L28" s="96">
+        <v>534</v>
+      </c>
+      <c r="M28" s="97">
+        <f t="shared" si="5"/>
+        <v>-8.0996450493593386E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="96">
+        <f t="shared" si="6"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D29" s="96">
+        <v>97</v>
+      </c>
+      <c r="E29" s="97">
+        <f t="shared" si="3"/>
+        <v>-3.0649205906938537E-3</v>
+      </c>
+      <c r="F29" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="96">
+        <f t="shared" si="7"/>
+        <v>129.72972972972974</v>
+      </c>
+      <c r="H29" s="96">
+        <v>129</v>
+      </c>
+      <c r="I29" s="97">
+        <f t="shared" si="4"/>
+        <v>-5.6568196103081725E-3</v>
+      </c>
+      <c r="J29" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="96">
+        <f t="shared" si="8"/>
+        <v>162.16216216216219</v>
+      </c>
+      <c r="L29" s="96">
+        <v>161</v>
+      </c>
+      <c r="M29" s="97">
+        <f t="shared" si="5"/>
+        <v>-7.2183985227465275E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="96">
+        <f t="shared" si="6"/>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D30" s="96">
+        <v>97</v>
+      </c>
+      <c r="E30" s="97">
+        <f t="shared" si="3"/>
+        <v>-3.0649205906938537E-3</v>
+      </c>
+      <c r="F30" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="96">
+        <f t="shared" si="7"/>
+        <v>129.72972972972974</v>
+      </c>
+      <c r="H30" s="96">
+        <v>130</v>
+      </c>
+      <c r="I30" s="97">
+        <f t="shared" si="4"/>
+        <v>2.0790020790020236E-3</v>
+      </c>
+      <c r="J30" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="96">
+        <f t="shared" si="8"/>
+        <v>162.16216216216219</v>
+      </c>
+      <c r="L30" s="96">
+        <v>162</v>
+      </c>
+      <c r="M30" s="97">
+        <f t="shared" si="5"/>
+        <v>-1.0010010010010895E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="96">
+        <f>C15*3</f>
+        <v>97.297297297297305</v>
+      </c>
+      <c r="D31" s="96">
+        <v>97</v>
+      </c>
+      <c r="E31" s="97">
+        <f t="shared" si="3"/>
+        <v>-3.0649205906938537E-3</v>
+      </c>
+      <c r="F31" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="G31" s="96">
+        <f>C15*4</f>
+        <v>129.72972972972974</v>
+      </c>
+      <c r="H31" s="96">
+        <v>129</v>
+      </c>
+      <c r="I31" s="97">
+        <f t="shared" si="4"/>
+        <v>-5.6568196103081725E-3</v>
+      </c>
+      <c r="J31" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="K31" s="96">
+        <f t="shared" si="8"/>
+        <v>162.16216216216219</v>
+      </c>
+      <c r="L31" s="96">
+        <v>161</v>
+      </c>
+      <c r="M31" s="97">
+        <f t="shared" si="5"/>
+        <v>-7.2183985227465275E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="98">
+        <f>SUM(C20:C31)</f>
+        <v>2951.2238108673628</v>
+      </c>
+      <c r="D32" s="99">
+        <f>SUM(D20:D31)</f>
+        <v>2946</v>
+      </c>
+      <c r="E32" s="100">
+        <f t="shared" si="3"/>
+        <v>-1.7731876671291946E-3</v>
+      </c>
+      <c r="F32" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="98">
+        <f>SUM(G20:G31)</f>
+        <v>3934.9650811564829</v>
+      </c>
+      <c r="H32" s="99">
+        <f>SUM(H20:H31)</f>
+        <v>3937</v>
+      </c>
+      <c r="I32" s="100">
+        <f t="shared" si="4"/>
+        <v>5.1687041999415317E-4</v>
+      </c>
+      <c r="J32" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="98">
+        <f>SUM(K20:K31)</f>
+        <v>4918.706351445604</v>
+      </c>
+      <c r="L32" s="99">
+        <f>SUM(L20:L31)</f>
+        <v>4908</v>
+      </c>
+      <c r="M32" s="100">
+        <f t="shared" si="5"/>
+        <v>-2.1814082000009005E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A645A5DF-12D7-48C9-8EB7-9F82EC709280}">
+  <dimension ref="B2:M33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="119" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+    </row>
+    <row r="3" spans="2:9" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="96">
+        <f>524.270285902485*4</f>
+        <v>2097.0811436099402</v>
+      </c>
+      <c r="D4" s="96">
+        <v>2094</v>
+      </c>
+      <c r="E4" s="97">
+        <f t="shared" ref="E4:E16" si="0">1-C4/D4</f>
+        <v>-1.4714152865042962E-3</v>
+      </c>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="96">
+        <f>426.972988605188*4</f>
+        <v>1707.891954420752</v>
+      </c>
+      <c r="D5" s="96">
+        <v>1705</v>
+      </c>
+      <c r="E5" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.6961609505876662E-3</v>
+      </c>
+      <c r="F5" s="106"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="105"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="96">
+        <f>304.854952201437*4</f>
+        <v>1219.4198088057481</v>
+      </c>
+      <c r="D6" s="96">
+        <v>1217</v>
+      </c>
+      <c r="E6" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.9883391994643951E-3</v>
+      </c>
+      <c r="F6" s="102"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="105"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="96">
+        <f>274.346477625166*4</f>
+        <v>1097.3859105006641</v>
+      </c>
+      <c r="D7" s="96">
+        <v>1096</v>
+      </c>
+      <c r="E7" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.2645168801679318E-3</v>
+      </c>
+      <c r="F7" s="106"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="93" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="96">
+        <f>274.346477625166*4</f>
+        <v>1097.3859105006641</v>
+      </c>
+      <c r="D8" s="96">
+        <v>1098</v>
+      </c>
+      <c r="E8" s="97">
+        <f t="shared" si="0"/>
+        <v>5.5928005404004555E-4</v>
+      </c>
+      <c r="F8" s="107"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="96">
+        <f>177.049180327869*4</f>
+        <v>708.19672131147604</v>
+      </c>
+      <c r="D9" s="96">
+        <v>707</v>
+      </c>
+      <c r="E9" s="97">
+        <f t="shared" si="0"/>
+        <v>-1.6926751223140801E-3</v>
+      </c>
+      <c r="F9" s="108"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="105"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="96">
+        <f>281.027042659242*4</f>
+        <v>1124.108170636968</v>
+      </c>
+      <c r="D10" s="96">
+        <v>1120</v>
+      </c>
+      <c r="E10" s="97">
+        <f t="shared" si="0"/>
+        <v>-3.6680094972929567E-3</v>
+      </c>
+      <c r="F10" s="108"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="105"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="96">
+        <f>73.469387755102*4</f>
+        <v>293.87755102040802</v>
+      </c>
+      <c r="D11" s="96">
+        <v>294</v>
+      </c>
+      <c r="E11" s="97">
+        <f t="shared" si="0"/>
+        <v>4.164931278638484E-4</v>
+      </c>
+      <c r="F11" s="109"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="96">
+        <f>322.995126273815*4</f>
+        <v>1291.98050509526</v>
+      </c>
+      <c r="D12" s="96">
+        <v>1293</v>
+      </c>
+      <c r="E12" s="97">
+        <f t="shared" si="0"/>
+        <v>7.8847247079660843E-4</v>
+      </c>
+      <c r="F12" s="109"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="105"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="96">
+        <f>97.2972972972973*4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="D13" s="96">
+        <v>389</v>
+      </c>
+      <c r="E13" s="97">
+        <f t="shared" si="0"/>
+        <v>-4.8634753004939135E-4</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="105"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="96">
+        <f>97.2972972972973*4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="D14" s="96">
+        <v>390</v>
+      </c>
+      <c r="E14" s="97">
+        <f t="shared" si="0"/>
+        <v>2.0790020790020236E-3</v>
+      </c>
+      <c r="F14" s="109"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="105"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="96">
+        <f>97.2972972972973*4</f>
+        <v>389.18918918918922</v>
+      </c>
+      <c r="D15" s="96">
+        <v>389</v>
+      </c>
+      <c r="E15" s="97">
+        <f t="shared" si="0"/>
+        <v>-4.8634753004939135E-4</v>
+      </c>
+      <c r="F15" s="109"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="105"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="98">
+        <f>SUM(C4:C15)</f>
+        <v>11804.895243469451</v>
+      </c>
+      <c r="D16" s="99">
+        <f>SUM(D4:D15)</f>
+        <v>11792</v>
+      </c>
+      <c r="E16" s="100">
+        <f t="shared" si="0"/>
+        <v>-1.0935586388611807E-3</v>
+      </c>
+      <c r="F16" s="110"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="105"/>
+    </row>
+    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="120"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" s="102"/>
+      <c r="C20" s="103"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" s="106"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="105"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="102"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="105"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="106"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="105"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="107"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="108"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="105"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="108"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="105"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="109"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="103"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="105"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="109"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="103"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="105"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="109"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="104"/>
+      <c r="M29" s="105"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="109"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="103"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="105"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="109"/>
+      <c r="C31" s="103"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="103"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="105"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="110"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="103"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="105"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
+      <c r="L33" s="112"/>
+      <c r="M33" s="112"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>